--- a/sisab_scrap_download/sudeste/cid_f/joined_files/joined_sudeste.xlsx
+++ b/sisab_scrap_download/sudeste/cid_f/joined_files/joined_sudeste.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE12"/>
+  <dimension ref="A1:CS13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,42 +733,6 @@
       <c r="CS1" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="CT1" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="CU1" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="CV1" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="CW1" s="2" t="n">
-        <v>45536</v>
-      </c>
-      <c r="CX1" s="2" t="n">
-        <v>45505</v>
-      </c>
-      <c r="CY1" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="CZ1" s="2" t="n">
-        <v>45444</v>
-      </c>
-      <c r="DA1" s="2" t="n">
-        <v>45413</v>
-      </c>
-      <c r="DB1" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="DC1" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="DD1" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="DE1" s="2" t="n">
-        <v>45292</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1064,3351 +1028,3250 @@
       <c r="CS2" t="n">
         <v>14568</v>
       </c>
-      <c r="CT2" t="n">
-        <v>13494</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>16054</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>18605</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>17997</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>18573</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>17598</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>16746</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>16733</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>18007</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>16160</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>15034</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>16347</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes</t>
+          <t>F10-F19 - Transtornos mentais e comportamentais devidos ao uso de substância psicoativa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3234</v>
+        <v>1056</v>
       </c>
       <c r="C3" t="n">
-        <v>3437</v>
+        <v>1271</v>
       </c>
       <c r="D3" t="n">
-        <v>3609</v>
+        <v>1387</v>
       </c>
       <c r="E3" t="n">
-        <v>3687</v>
+        <v>1612</v>
       </c>
       <c r="F3" t="n">
-        <v>4015</v>
+        <v>1648</v>
       </c>
       <c r="G3" t="n">
-        <v>3365</v>
+        <v>1325</v>
       </c>
       <c r="H3" t="n">
-        <v>3727</v>
+        <v>1386</v>
       </c>
       <c r="I3" t="n">
-        <v>3158</v>
+        <v>1169</v>
       </c>
       <c r="J3" t="n">
-        <v>3144</v>
+        <v>1261</v>
       </c>
       <c r="K3" t="n">
-        <v>3808</v>
+        <v>1504</v>
       </c>
       <c r="L3" t="n">
-        <v>2993</v>
+        <v>1134</v>
       </c>
       <c r="M3" t="n">
-        <v>5489</v>
+        <v>1990</v>
       </c>
       <c r="N3" t="n">
-        <v>7974</v>
+        <v>2624</v>
       </c>
       <c r="O3" t="n">
-        <v>9496</v>
+        <v>3122</v>
       </c>
       <c r="P3" t="n">
-        <v>9318</v>
+        <v>3069</v>
       </c>
       <c r="Q3" t="n">
-        <v>7750</v>
+        <v>2745</v>
       </c>
       <c r="R3" t="n">
-        <v>8296</v>
+        <v>2956</v>
       </c>
       <c r="S3" t="n">
-        <v>6323</v>
+        <v>2354</v>
       </c>
       <c r="T3" t="n">
-        <v>6768</v>
+        <v>2146</v>
       </c>
       <c r="U3" t="n">
-        <v>6363</v>
+        <v>2226</v>
       </c>
       <c r="V3" t="n">
-        <v>5384</v>
+        <v>1929</v>
       </c>
       <c r="W3" t="n">
-        <v>5050</v>
+        <v>1952</v>
       </c>
       <c r="X3" t="n">
-        <v>4151</v>
+        <v>1680</v>
       </c>
       <c r="Y3" t="n">
-        <v>4432</v>
+        <v>1579</v>
       </c>
       <c r="Z3" t="n">
-        <v>10010</v>
+        <v>3410</v>
       </c>
       <c r="AA3" t="n">
-        <v>13283</v>
+        <v>4373</v>
       </c>
       <c r="AB3" t="n">
-        <v>21609</v>
+        <v>6522</v>
       </c>
       <c r="AC3" t="n">
-        <v>16074</v>
+        <v>5013</v>
       </c>
       <c r="AD3" t="n">
-        <v>13690</v>
+        <v>4816</v>
       </c>
       <c r="AE3" t="n">
-        <v>11431</v>
+        <v>3967</v>
       </c>
       <c r="AF3" t="n">
-        <v>10790</v>
+        <v>3714</v>
       </c>
       <c r="AG3" t="n">
-        <v>10073</v>
+        <v>3607</v>
       </c>
       <c r="AH3" t="n">
-        <v>9597</v>
+        <v>3353</v>
       </c>
       <c r="AI3" t="n">
-        <v>10742</v>
+        <v>3317</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8715</v>
+        <v>2866</v>
       </c>
       <c r="AK3" t="n">
-        <v>9282</v>
+        <v>3062</v>
       </c>
       <c r="AL3" t="n">
-        <v>11238</v>
+        <v>3707</v>
       </c>
       <c r="AM3" t="n">
-        <v>13181</v>
+        <v>4567</v>
       </c>
       <c r="AN3" t="n">
-        <v>14622</v>
+        <v>4913</v>
       </c>
       <c r="AO3" t="n">
-        <v>13179</v>
+        <v>4911</v>
       </c>
       <c r="AP3" t="n">
-        <v>15318</v>
+        <v>5421</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14398</v>
+        <v>5009</v>
       </c>
       <c r="AR3" t="n">
-        <v>11817</v>
+        <v>4034</v>
       </c>
       <c r="AS3" t="n">
-        <v>13715</v>
+        <v>4538</v>
       </c>
       <c r="AT3" t="n">
-        <v>11496</v>
+        <v>3897</v>
       </c>
       <c r="AU3" t="n">
-        <v>10755</v>
+        <v>3723</v>
       </c>
       <c r="AV3" t="n">
-        <v>12916</v>
+        <v>4583</v>
       </c>
       <c r="AW3" t="n">
-        <v>12566</v>
+        <v>4380</v>
       </c>
       <c r="AX3" t="n">
-        <v>13827</v>
+        <v>4992</v>
       </c>
       <c r="AY3" t="n">
-        <v>15476</v>
+        <v>5848</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16070</v>
+        <v>6006</v>
       </c>
       <c r="BA3" t="n">
-        <v>16144</v>
+        <v>6072</v>
       </c>
       <c r="BB3" t="n">
-        <v>14970</v>
+        <v>5614</v>
       </c>
       <c r="BC3" t="n">
-        <v>13944</v>
+        <v>5629</v>
       </c>
       <c r="BD3" t="n">
-        <v>12472</v>
+        <v>5040</v>
       </c>
       <c r="BE3" t="n">
-        <v>10795</v>
+        <v>3720</v>
       </c>
       <c r="BF3" t="n">
-        <v>9750</v>
+        <v>2711</v>
       </c>
       <c r="BG3" t="n">
-        <v>14126</v>
+        <v>4140</v>
       </c>
       <c r="BH3" t="n">
-        <v>12720</v>
+        <v>4274</v>
       </c>
       <c r="BI3" t="n">
-        <v>12424</v>
+        <v>4512</v>
       </c>
       <c r="BJ3" t="n">
-        <v>15757</v>
+        <v>5837</v>
       </c>
       <c r="BK3" t="n">
-        <v>17190</v>
+        <v>6173</v>
       </c>
       <c r="BL3" t="n">
-        <v>16508</v>
+        <v>5571</v>
       </c>
       <c r="BM3" t="n">
-        <v>17146</v>
+        <v>6413</v>
       </c>
       <c r="BN3" t="n">
-        <v>18334</v>
+        <v>6607</v>
       </c>
       <c r="BO3" t="n">
-        <v>16585</v>
+        <v>5762</v>
       </c>
       <c r="BP3" t="n">
-        <v>15682</v>
+        <v>5358</v>
       </c>
       <c r="BQ3" t="n">
-        <v>15812</v>
+        <v>5651</v>
       </c>
       <c r="BR3" t="n">
-        <v>14050</v>
+        <v>5208</v>
       </c>
       <c r="BS3" t="n">
-        <v>16171</v>
+        <v>5955</v>
       </c>
       <c r="BT3" t="n">
-        <v>14587</v>
+        <v>5501</v>
       </c>
       <c r="BU3" t="n">
-        <v>13716</v>
+        <v>5118</v>
       </c>
       <c r="BV3" t="n">
-        <v>17269</v>
+        <v>6908</v>
       </c>
       <c r="BW3" t="n">
-        <v>18577</v>
+        <v>8297</v>
       </c>
       <c r="BX3" t="n">
-        <v>19387</v>
+        <v>8368</v>
       </c>
       <c r="BY3" t="n">
-        <v>19533</v>
+        <v>8483</v>
       </c>
       <c r="BZ3" t="n">
-        <v>21395</v>
+        <v>9123</v>
       </c>
       <c r="CA3" t="n">
-        <v>18412</v>
+        <v>7874</v>
       </c>
       <c r="CB3" t="n">
-        <v>18202</v>
+        <v>6783</v>
       </c>
       <c r="CC3" t="n">
-        <v>19311</v>
+        <v>7898</v>
       </c>
       <c r="CD3" t="n">
-        <v>16569</v>
+        <v>6225</v>
       </c>
       <c r="CE3" t="n">
-        <v>19230</v>
+        <v>7030</v>
       </c>
       <c r="CF3" t="n">
-        <v>16109</v>
+        <v>5996</v>
       </c>
       <c r="CG3" t="n">
-        <v>14308</v>
+        <v>4671</v>
       </c>
       <c r="CH3" t="n">
-        <v>21753</v>
+        <v>9466</v>
       </c>
       <c r="CI3" t="n">
-        <v>23126</v>
+        <v>10262</v>
       </c>
       <c r="CJ3" t="n">
-        <v>24931</v>
+        <v>11328</v>
       </c>
       <c r="CK3" t="n">
-        <v>23939</v>
+        <v>10682</v>
       </c>
       <c r="CL3" t="n">
-        <v>28006</v>
+        <v>12810</v>
       </c>
       <c r="CM3" t="n">
-        <v>24517</v>
+        <v>10693</v>
       </c>
       <c r="CN3" t="n">
-        <v>23527</v>
+        <v>10084</v>
       </c>
       <c r="CO3" t="n">
-        <v>25386</v>
+        <v>10812</v>
       </c>
       <c r="CP3" t="n">
-        <v>21467</v>
+        <v>9016</v>
       </c>
       <c r="CQ3" t="n">
-        <v>26525</v>
+        <v>10746</v>
       </c>
       <c r="CR3" t="n">
-        <v>20588</v>
+        <v>8587</v>
       </c>
       <c r="CS3" t="n">
-        <v>22127</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>21229</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>23599</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>26653</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>26240</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>27716</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>26594</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>25418</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>25321</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>27390</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>24942</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>23287</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>24770</v>
+        <v>9962</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F30-F39 - Transtornos do humor [afetivos]</t>
+          <t>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13916</v>
+        <v>3234</v>
       </c>
       <c r="C4" t="n">
-        <v>15229</v>
+        <v>3437</v>
       </c>
       <c r="D4" t="n">
-        <v>15542</v>
+        <v>3609</v>
       </c>
       <c r="E4" t="n">
-        <v>16949</v>
+        <v>3687</v>
       </c>
       <c r="F4" t="n">
-        <v>18232</v>
+        <v>4015</v>
       </c>
       <c r="G4" t="n">
-        <v>14728</v>
+        <v>3365</v>
       </c>
       <c r="H4" t="n">
-        <v>15440</v>
+        <v>3727</v>
       </c>
       <c r="I4" t="n">
-        <v>14387</v>
+        <v>3158</v>
       </c>
       <c r="J4" t="n">
-        <v>14311</v>
+        <v>3144</v>
       </c>
       <c r="K4" t="n">
-        <v>16512</v>
+        <v>3808</v>
       </c>
       <c r="L4" t="n">
-        <v>13144</v>
+        <v>2993</v>
       </c>
       <c r="M4" t="n">
-        <v>15048</v>
+        <v>5489</v>
       </c>
       <c r="N4" t="n">
-        <v>30519</v>
+        <v>7974</v>
       </c>
       <c r="O4" t="n">
-        <v>37742</v>
+        <v>9496</v>
       </c>
       <c r="P4" t="n">
-        <v>38990</v>
+        <v>9318</v>
       </c>
       <c r="Q4" t="n">
-        <v>33229</v>
+        <v>7750</v>
       </c>
       <c r="R4" t="n">
-        <v>32650</v>
+        <v>8296</v>
       </c>
       <c r="S4" t="n">
-        <v>24377</v>
+        <v>6323</v>
       </c>
       <c r="T4" t="n">
-        <v>25183</v>
+        <v>6768</v>
       </c>
       <c r="U4" t="n">
-        <v>24996</v>
+        <v>6363</v>
       </c>
       <c r="V4" t="n">
-        <v>21622</v>
+        <v>5384</v>
       </c>
       <c r="W4" t="n">
-        <v>22723</v>
+        <v>5050</v>
       </c>
       <c r="X4" t="n">
-        <v>17886</v>
+        <v>4151</v>
       </c>
       <c r="Y4" t="n">
-        <v>19085</v>
+        <v>4432</v>
       </c>
       <c r="Z4" t="n">
-        <v>35909</v>
+        <v>10010</v>
       </c>
       <c r="AA4" t="n">
-        <v>48312</v>
+        <v>13283</v>
       </c>
       <c r="AB4" t="n">
-        <v>69074</v>
+        <v>21609</v>
       </c>
       <c r="AC4" t="n">
-        <v>52182</v>
+        <v>16074</v>
       </c>
       <c r="AD4" t="n">
-        <v>48394</v>
+        <v>13690</v>
       </c>
       <c r="AE4" t="n">
-        <v>41068</v>
+        <v>11431</v>
       </c>
       <c r="AF4" t="n">
-        <v>39667</v>
+        <v>10790</v>
       </c>
       <c r="AG4" t="n">
-        <v>38685</v>
+        <v>10073</v>
       </c>
       <c r="AH4" t="n">
-        <v>37823</v>
+        <v>9597</v>
       </c>
       <c r="AI4" t="n">
-        <v>39934</v>
+        <v>10742</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34085</v>
+        <v>8715</v>
       </c>
       <c r="AK4" t="n">
-        <v>35855</v>
+        <v>9282</v>
       </c>
       <c r="AL4" t="n">
-        <v>42689</v>
+        <v>11238</v>
       </c>
       <c r="AM4" t="n">
-        <v>53268</v>
+        <v>13181</v>
       </c>
       <c r="AN4" t="n">
-        <v>62183</v>
+        <v>14622</v>
       </c>
       <c r="AO4" t="n">
-        <v>54633</v>
+        <v>13179</v>
       </c>
       <c r="AP4" t="n">
-        <v>60869</v>
+        <v>15318</v>
       </c>
       <c r="AQ4" t="n">
-        <v>53255</v>
+        <v>14398</v>
       </c>
       <c r="AR4" t="n">
-        <v>43482</v>
+        <v>11817</v>
       </c>
       <c r="AS4" t="n">
-        <v>52665</v>
+        <v>13715</v>
       </c>
       <c r="AT4" t="n">
-        <v>45285</v>
+        <v>11496</v>
       </c>
       <c r="AU4" t="n">
-        <v>40035</v>
+        <v>10755</v>
       </c>
       <c r="AV4" t="n">
-        <v>47008</v>
+        <v>12916</v>
       </c>
       <c r="AW4" t="n">
-        <v>44533</v>
+        <v>12566</v>
       </c>
       <c r="AX4" t="n">
-        <v>52028</v>
+        <v>13827</v>
       </c>
       <c r="AY4" t="n">
-        <v>59891</v>
+        <v>15476</v>
       </c>
       <c r="AZ4" t="n">
-        <v>61508</v>
+        <v>16070</v>
       </c>
       <c r="BA4" t="n">
-        <v>62503</v>
+        <v>16144</v>
       </c>
       <c r="BB4" t="n">
-        <v>57034</v>
+        <v>14970</v>
       </c>
       <c r="BC4" t="n">
-        <v>56790</v>
+        <v>13944</v>
       </c>
       <c r="BD4" t="n">
-        <v>50625</v>
+        <v>12472</v>
       </c>
       <c r="BE4" t="n">
-        <v>42053</v>
+        <v>10795</v>
       </c>
       <c r="BF4" t="n">
-        <v>40051</v>
+        <v>9750</v>
       </c>
       <c r="BG4" t="n">
-        <v>51062</v>
+        <v>14126</v>
       </c>
       <c r="BH4" t="n">
-        <v>47104</v>
+        <v>12720</v>
       </c>
       <c r="BI4" t="n">
-        <v>47295</v>
+        <v>12424</v>
       </c>
       <c r="BJ4" t="n">
-        <v>59919</v>
+        <v>15757</v>
       </c>
       <c r="BK4" t="n">
-        <v>65919</v>
+        <v>17190</v>
       </c>
       <c r="BL4" t="n">
-        <v>63768</v>
+        <v>16508</v>
       </c>
       <c r="BM4" t="n">
-        <v>67172</v>
+        <v>17146</v>
       </c>
       <c r="BN4" t="n">
-        <v>70468</v>
+        <v>18334</v>
       </c>
       <c r="BO4" t="n">
-        <v>60013</v>
+        <v>16585</v>
       </c>
       <c r="BP4" t="n">
-        <v>57905</v>
+        <v>15682</v>
       </c>
       <c r="BQ4" t="n">
-        <v>58939</v>
+        <v>15812</v>
       </c>
       <c r="BR4" t="n">
-        <v>55969</v>
+        <v>14050</v>
       </c>
       <c r="BS4" t="n">
-        <v>61184</v>
+        <v>16171</v>
       </c>
       <c r="BT4" t="n">
-        <v>55127</v>
+        <v>14587</v>
       </c>
       <c r="BU4" t="n">
-        <v>51061</v>
+        <v>13716</v>
       </c>
       <c r="BV4" t="n">
-        <v>63510</v>
+        <v>17269</v>
       </c>
       <c r="BW4" t="n">
-        <v>69219</v>
+        <v>18577</v>
       </c>
       <c r="BX4" t="n">
-        <v>70943</v>
+        <v>19387</v>
       </c>
       <c r="BY4" t="n">
-        <v>74225</v>
+        <v>19533</v>
       </c>
       <c r="BZ4" t="n">
-        <v>80412</v>
+        <v>21395</v>
       </c>
       <c r="CA4" t="n">
-        <v>66345</v>
+        <v>18412</v>
       </c>
       <c r="CB4" t="n">
-        <v>65277</v>
+        <v>18202</v>
       </c>
       <c r="CC4" t="n">
-        <v>72204</v>
+        <v>19311</v>
       </c>
       <c r="CD4" t="n">
-        <v>63018</v>
+        <v>16569</v>
       </c>
       <c r="CE4" t="n">
-        <v>71938</v>
+        <v>19230</v>
       </c>
       <c r="CF4" t="n">
-        <v>59254</v>
+        <v>16109</v>
       </c>
       <c r="CG4" t="n">
-        <v>50746</v>
+        <v>14308</v>
       </c>
       <c r="CH4" t="n">
-        <v>70955</v>
+        <v>21753</v>
       </c>
       <c r="CI4" t="n">
-        <v>79511</v>
+        <v>23126</v>
       </c>
       <c r="CJ4" t="n">
-        <v>86167</v>
+        <v>24931</v>
       </c>
       <c r="CK4" t="n">
-        <v>80017</v>
+        <v>23939</v>
       </c>
       <c r="CL4" t="n">
-        <v>93776</v>
+        <v>28006</v>
       </c>
       <c r="CM4" t="n">
-        <v>79763</v>
+        <v>24517</v>
       </c>
       <c r="CN4" t="n">
-        <v>78504</v>
+        <v>23527</v>
       </c>
       <c r="CO4" t="n">
-        <v>86310</v>
+        <v>25386</v>
       </c>
       <c r="CP4" t="n">
-        <v>72000</v>
+        <v>21467</v>
       </c>
       <c r="CQ4" t="n">
-        <v>88783</v>
+        <v>26525</v>
       </c>
       <c r="CR4" t="n">
-        <v>68858</v>
+        <v>20588</v>
       </c>
       <c r="CS4" t="n">
-        <v>77486</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>66061</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>76839</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>89274</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>85214</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>88115</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>83414</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>80441</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>80968</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>88443</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>78238</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>74726</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>81581</v>
+        <v>22127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes</t>
+          <t>F30-F39 - Transtornos do humor [afetivos]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15185</v>
+        <v>13916</v>
       </c>
       <c r="C5" t="n">
-        <v>16895</v>
+        <v>15229</v>
       </c>
       <c r="D5" t="n">
-        <v>17296</v>
+        <v>15542</v>
       </c>
       <c r="E5" t="n">
-        <v>18178</v>
+        <v>16949</v>
       </c>
       <c r="F5" t="n">
-        <v>19215</v>
+        <v>18232</v>
       </c>
       <c r="G5" t="n">
-        <v>15258</v>
+        <v>14728</v>
       </c>
       <c r="H5" t="n">
-        <v>16639</v>
+        <v>15440</v>
       </c>
       <c r="I5" t="n">
-        <v>14824</v>
+        <v>14387</v>
       </c>
       <c r="J5" t="n">
-        <v>13902</v>
+        <v>14311</v>
       </c>
       <c r="K5" t="n">
-        <v>16919</v>
+        <v>16512</v>
       </c>
       <c r="L5" t="n">
-        <v>12769</v>
+        <v>13144</v>
       </c>
       <c r="M5" t="n">
-        <v>14654</v>
+        <v>15048</v>
       </c>
       <c r="N5" t="n">
-        <v>37392</v>
+        <v>30519</v>
       </c>
       <c r="O5" t="n">
-        <v>46350</v>
+        <v>37742</v>
       </c>
       <c r="P5" t="n">
-        <v>45987</v>
+        <v>38990</v>
       </c>
       <c r="Q5" t="n">
-        <v>42344</v>
+        <v>33229</v>
       </c>
       <c r="R5" t="n">
-        <v>39633</v>
+        <v>32650</v>
       </c>
       <c r="S5" t="n">
-        <v>30567</v>
+        <v>24377</v>
       </c>
       <c r="T5" t="n">
-        <v>30643</v>
+        <v>25183</v>
       </c>
       <c r="U5" t="n">
-        <v>30092</v>
+        <v>24996</v>
       </c>
       <c r="V5" t="n">
-        <v>25972</v>
+        <v>21622</v>
       </c>
       <c r="W5" t="n">
-        <v>26273</v>
+        <v>22723</v>
       </c>
       <c r="X5" t="n">
-        <v>20327</v>
+        <v>17886</v>
       </c>
       <c r="Y5" t="n">
-        <v>21460</v>
+        <v>19085</v>
       </c>
       <c r="Z5" t="n">
-        <v>43964</v>
+        <v>35909</v>
       </c>
       <c r="AA5" t="n">
-        <v>60165</v>
+        <v>48312</v>
       </c>
       <c r="AB5" t="n">
-        <v>84811</v>
+        <v>69074</v>
       </c>
       <c r="AC5" t="n">
-        <v>65441</v>
+        <v>52182</v>
       </c>
       <c r="AD5" t="n">
-        <v>63887</v>
+        <v>48394</v>
       </c>
       <c r="AE5" t="n">
-        <v>53726</v>
+        <v>41068</v>
       </c>
       <c r="AF5" t="n">
-        <v>50685</v>
+        <v>39667</v>
       </c>
       <c r="AG5" t="n">
-        <v>49853</v>
+        <v>38685</v>
       </c>
       <c r="AH5" t="n">
-        <v>49744</v>
+        <v>37823</v>
       </c>
       <c r="AI5" t="n">
-        <v>49787</v>
+        <v>39934</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41626</v>
+        <v>34085</v>
       </c>
       <c r="AK5" t="n">
-        <v>44885</v>
+        <v>35855</v>
       </c>
       <c r="AL5" t="n">
-        <v>56888</v>
+        <v>42689</v>
       </c>
       <c r="AM5" t="n">
-        <v>70477</v>
+        <v>53268</v>
       </c>
       <c r="AN5" t="n">
-        <v>78842</v>
+        <v>62183</v>
       </c>
       <c r="AO5" t="n">
-        <v>72002</v>
+        <v>54633</v>
       </c>
       <c r="AP5" t="n">
-        <v>79926</v>
+        <v>60869</v>
       </c>
       <c r="AQ5" t="n">
-        <v>70111</v>
+        <v>53255</v>
       </c>
       <c r="AR5" t="n">
-        <v>57599</v>
+        <v>43482</v>
       </c>
       <c r="AS5" t="n">
-        <v>67176</v>
+        <v>52665</v>
       </c>
       <c r="AT5" t="n">
-        <v>59722</v>
+        <v>45285</v>
       </c>
       <c r="AU5" t="n">
-        <v>51625</v>
+        <v>40035</v>
       </c>
       <c r="AV5" t="n">
-        <v>60287</v>
+        <v>47008</v>
       </c>
       <c r="AW5" t="n">
-        <v>56547</v>
+        <v>44533</v>
       </c>
       <c r="AX5" t="n">
-        <v>84856</v>
+        <v>52028</v>
       </c>
       <c r="AY5" t="n">
-        <v>97091</v>
+        <v>59891</v>
       </c>
       <c r="AZ5" t="n">
-        <v>96250</v>
+        <v>61508</v>
       </c>
       <c r="BA5" t="n">
-        <v>98982</v>
+        <v>62503</v>
       </c>
       <c r="BB5" t="n">
-        <v>88818</v>
+        <v>57034</v>
       </c>
       <c r="BC5" t="n">
-        <v>87809</v>
+        <v>56790</v>
       </c>
       <c r="BD5" t="n">
-        <v>78360</v>
+        <v>50625</v>
       </c>
       <c r="BE5" t="n">
-        <v>65940</v>
+        <v>42053</v>
       </c>
       <c r="BF5" t="n">
-        <v>56974</v>
+        <v>40051</v>
       </c>
       <c r="BG5" t="n">
-        <v>69878</v>
+        <v>51062</v>
       </c>
       <c r="BH5" t="n">
-        <v>65901</v>
+        <v>47104</v>
       </c>
       <c r="BI5" t="n">
-        <v>67624</v>
+        <v>47295</v>
       </c>
       <c r="BJ5" t="n">
-        <v>106809</v>
+        <v>59919</v>
       </c>
       <c r="BK5" t="n">
-        <v>120682</v>
+        <v>65919</v>
       </c>
       <c r="BL5" t="n">
-        <v>115238</v>
+        <v>63768</v>
       </c>
       <c r="BM5" t="n">
-        <v>121245</v>
+        <v>67172</v>
       </c>
       <c r="BN5" t="n">
-        <v>127649</v>
+        <v>70468</v>
       </c>
       <c r="BO5" t="n">
-        <v>107151</v>
+        <v>60013</v>
       </c>
       <c r="BP5" t="n">
-        <v>104160</v>
+        <v>57905</v>
       </c>
       <c r="BQ5" t="n">
-        <v>105062</v>
+        <v>58939</v>
       </c>
       <c r="BR5" t="n">
-        <v>97250</v>
+        <v>55969</v>
       </c>
       <c r="BS5" t="n">
-        <v>104389</v>
+        <v>61184</v>
       </c>
       <c r="BT5" t="n">
-        <v>91670</v>
+        <v>55127</v>
       </c>
       <c r="BU5" t="n">
-        <v>85815</v>
+        <v>51061</v>
       </c>
       <c r="BV5" t="n">
-        <v>134089</v>
+        <v>63510</v>
       </c>
       <c r="BW5" t="n">
-        <v>148933</v>
+        <v>69219</v>
       </c>
       <c r="BX5" t="n">
-        <v>153897</v>
+        <v>70943</v>
       </c>
       <c r="BY5" t="n">
-        <v>156905</v>
+        <v>74225</v>
       </c>
       <c r="BZ5" t="n">
-        <v>167663</v>
+        <v>80412</v>
       </c>
       <c r="CA5" t="n">
-        <v>137219</v>
+        <v>66345</v>
       </c>
       <c r="CB5" t="n">
-        <v>129486</v>
+        <v>65277</v>
       </c>
       <c r="CC5" t="n">
-        <v>143139</v>
+        <v>72204</v>
       </c>
       <c r="CD5" t="n">
-        <v>120988</v>
+        <v>63018</v>
       </c>
       <c r="CE5" t="n">
-        <v>139564</v>
+        <v>71938</v>
       </c>
       <c r="CF5" t="n">
-        <v>111481</v>
+        <v>59254</v>
       </c>
       <c r="CG5" t="n">
-        <v>89154</v>
+        <v>50746</v>
       </c>
       <c r="CH5" t="n">
-        <v>173198</v>
+        <v>70955</v>
       </c>
       <c r="CI5" t="n">
-        <v>194796</v>
+        <v>79511</v>
       </c>
       <c r="CJ5" t="n">
-        <v>211708</v>
+        <v>86167</v>
       </c>
       <c r="CK5" t="n">
-        <v>199008</v>
+        <v>80017</v>
       </c>
       <c r="CL5" t="n">
-        <v>231360</v>
+        <v>93776</v>
       </c>
       <c r="CM5" t="n">
-        <v>189974</v>
+        <v>79763</v>
       </c>
       <c r="CN5" t="n">
-        <v>184025</v>
+        <v>78504</v>
       </c>
       <c r="CO5" t="n">
-        <v>199975</v>
+        <v>86310</v>
       </c>
       <c r="CP5" t="n">
-        <v>164888</v>
+        <v>72000</v>
       </c>
       <c r="CQ5" t="n">
-        <v>205473</v>
+        <v>88783</v>
       </c>
       <c r="CR5" t="n">
-        <v>153161</v>
+        <v>68858</v>
       </c>
       <c r="CS5" t="n">
-        <v>170626</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>181258</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>214159</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>242252</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>236807</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>239806</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>226466</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>212885</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>209988</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>226983</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>199012</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>189933</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>206591</v>
+        <v>77486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos</t>
+          <t>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1657</v>
+        <v>15185</v>
       </c>
       <c r="C6" t="n">
-        <v>1773</v>
+        <v>16895</v>
       </c>
       <c r="D6" t="n">
-        <v>1943</v>
+        <v>17296</v>
       </c>
       <c r="E6" t="n">
-        <v>2120</v>
+        <v>18178</v>
       </c>
       <c r="F6" t="n">
-        <v>2287</v>
+        <v>19215</v>
       </c>
       <c r="G6" t="n">
-        <v>1978</v>
+        <v>15258</v>
       </c>
       <c r="H6" t="n">
-        <v>1953</v>
+        <v>16639</v>
       </c>
       <c r="I6" t="n">
-        <v>1714</v>
+        <v>14824</v>
       </c>
       <c r="J6" t="n">
-        <v>1605</v>
+        <v>13902</v>
       </c>
       <c r="K6" t="n">
-        <v>1877</v>
+        <v>16919</v>
       </c>
       <c r="L6" t="n">
-        <v>1623</v>
+        <v>12769</v>
       </c>
       <c r="M6" t="n">
-        <v>1710</v>
+        <v>14654</v>
       </c>
       <c r="N6" t="n">
-        <v>3812</v>
+        <v>37392</v>
       </c>
       <c r="O6" t="n">
-        <v>4672</v>
+        <v>46350</v>
       </c>
       <c r="P6" t="n">
-        <v>4475</v>
+        <v>45987</v>
       </c>
       <c r="Q6" t="n">
-        <v>3862</v>
+        <v>42344</v>
       </c>
       <c r="R6" t="n">
-        <v>4065</v>
+        <v>39633</v>
       </c>
       <c r="S6" t="n">
-        <v>3247</v>
+        <v>30567</v>
       </c>
       <c r="T6" t="n">
-        <v>3171</v>
+        <v>30643</v>
       </c>
       <c r="U6" t="n">
-        <v>2967</v>
+        <v>30092</v>
       </c>
       <c r="V6" t="n">
-        <v>2641</v>
+        <v>25972</v>
       </c>
       <c r="W6" t="n">
-        <v>2552</v>
+        <v>26273</v>
       </c>
       <c r="X6" t="n">
-        <v>2105</v>
+        <v>20327</v>
       </c>
       <c r="Y6" t="n">
-        <v>2345</v>
+        <v>21460</v>
       </c>
       <c r="Z6" t="n">
-        <v>3909</v>
+        <v>43964</v>
       </c>
       <c r="AA6" t="n">
-        <v>5454</v>
+        <v>60165</v>
       </c>
       <c r="AB6" t="n">
-        <v>7762</v>
+        <v>84811</v>
       </c>
       <c r="AC6" t="n">
-        <v>6322</v>
+        <v>65441</v>
       </c>
       <c r="AD6" t="n">
-        <v>6221</v>
+        <v>63887</v>
       </c>
       <c r="AE6" t="n">
-        <v>5272</v>
+        <v>53726</v>
       </c>
       <c r="AF6" t="n">
-        <v>4884</v>
+        <v>50685</v>
       </c>
       <c r="AG6" t="n">
-        <v>4657</v>
+        <v>49853</v>
       </c>
       <c r="AH6" t="n">
-        <v>4453</v>
+        <v>49744</v>
       </c>
       <c r="AI6" t="n">
-        <v>4753</v>
+        <v>49787</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3920</v>
+        <v>41626</v>
       </c>
       <c r="AK6" t="n">
-        <v>4254</v>
+        <v>44885</v>
       </c>
       <c r="AL6" t="n">
-        <v>4896</v>
+        <v>56888</v>
       </c>
       <c r="AM6" t="n">
-        <v>5898</v>
+        <v>70477</v>
       </c>
       <c r="AN6" t="n">
-        <v>6631</v>
+        <v>78842</v>
       </c>
       <c r="AO6" t="n">
-        <v>6376</v>
+        <v>72002</v>
       </c>
       <c r="AP6" t="n">
-        <v>6985</v>
+        <v>79926</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6589</v>
+        <v>70111</v>
       </c>
       <c r="AR6" t="n">
-        <v>5239</v>
+        <v>57599</v>
       </c>
       <c r="AS6" t="n">
-        <v>6121</v>
+        <v>67176</v>
       </c>
       <c r="AT6" t="n">
-        <v>5131</v>
+        <v>59722</v>
       </c>
       <c r="AU6" t="n">
-        <v>4167</v>
+        <v>51625</v>
       </c>
       <c r="AV6" t="n">
-        <v>5230</v>
+        <v>60287</v>
       </c>
       <c r="AW6" t="n">
-        <v>5123</v>
+        <v>56547</v>
       </c>
       <c r="AX6" t="n">
-        <v>7395</v>
+        <v>84856</v>
       </c>
       <c r="AY6" t="n">
-        <v>8196</v>
+        <v>97091</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8788</v>
+        <v>96250</v>
       </c>
       <c r="BA6" t="n">
-        <v>9032</v>
+        <v>98982</v>
       </c>
       <c r="BB6" t="n">
-        <v>8664</v>
+        <v>88818</v>
       </c>
       <c r="BC6" t="n">
-        <v>8459</v>
+        <v>87809</v>
       </c>
       <c r="BD6" t="n">
-        <v>7615</v>
+        <v>78360</v>
       </c>
       <c r="BE6" t="n">
-        <v>6152</v>
+        <v>65940</v>
       </c>
       <c r="BF6" t="n">
-        <v>5254</v>
+        <v>56974</v>
       </c>
       <c r="BG6" t="n">
-        <v>6012</v>
+        <v>69878</v>
       </c>
       <c r="BH6" t="n">
-        <v>5675</v>
+        <v>65901</v>
       </c>
       <c r="BI6" t="n">
-        <v>5635</v>
+        <v>67624</v>
       </c>
       <c r="BJ6" t="n">
-        <v>7610</v>
+        <v>106809</v>
       </c>
       <c r="BK6" t="n">
-        <v>8493</v>
+        <v>120682</v>
       </c>
       <c r="BL6" t="n">
-        <v>8250</v>
+        <v>115238</v>
       </c>
       <c r="BM6" t="n">
-        <v>8973</v>
+        <v>121245</v>
       </c>
       <c r="BN6" t="n">
-        <v>9781</v>
+        <v>127649</v>
       </c>
       <c r="BO6" t="n">
-        <v>8944</v>
+        <v>107151</v>
       </c>
       <c r="BP6" t="n">
-        <v>8075</v>
+        <v>104160</v>
       </c>
       <c r="BQ6" t="n">
-        <v>8512</v>
+        <v>105062</v>
       </c>
       <c r="BR6" t="n">
-        <v>7712</v>
+        <v>97250</v>
       </c>
       <c r="BS6" t="n">
-        <v>8296</v>
+        <v>104389</v>
       </c>
       <c r="BT6" t="n">
-        <v>7662</v>
+        <v>91670</v>
       </c>
       <c r="BU6" t="n">
-        <v>7471</v>
+        <v>85815</v>
       </c>
       <c r="BV6" t="n">
-        <v>7946</v>
+        <v>134089</v>
       </c>
       <c r="BW6" t="n">
-        <v>8602</v>
+        <v>148933</v>
       </c>
       <c r="BX6" t="n">
-        <v>9185</v>
+        <v>153897</v>
       </c>
       <c r="BY6" t="n">
-        <v>9725</v>
+        <v>156905</v>
       </c>
       <c r="BZ6" t="n">
-        <v>10607</v>
+        <v>167663</v>
       </c>
       <c r="CA6" t="n">
-        <v>9289</v>
+        <v>137219</v>
       </c>
       <c r="CB6" t="n">
-        <v>8816</v>
+        <v>129486</v>
       </c>
       <c r="CC6" t="n">
-        <v>9145</v>
+        <v>143139</v>
       </c>
       <c r="CD6" t="n">
-        <v>7940</v>
+        <v>120988</v>
       </c>
       <c r="CE6" t="n">
-        <v>9006</v>
+        <v>139564</v>
       </c>
       <c r="CF6" t="n">
-        <v>7828</v>
+        <v>111481</v>
       </c>
       <c r="CG6" t="n">
-        <v>6549</v>
+        <v>89154</v>
       </c>
       <c r="CH6" t="n">
-        <v>8944</v>
+        <v>173198</v>
       </c>
       <c r="CI6" t="n">
-        <v>10199</v>
+        <v>194796</v>
       </c>
       <c r="CJ6" t="n">
-        <v>11018</v>
+        <v>211708</v>
       </c>
       <c r="CK6" t="n">
-        <v>10831</v>
+        <v>199008</v>
       </c>
       <c r="CL6" t="n">
-        <v>13090</v>
+        <v>231360</v>
       </c>
       <c r="CM6" t="n">
-        <v>11280</v>
+        <v>189974</v>
       </c>
       <c r="CN6" t="n">
-        <v>10542</v>
+        <v>184025</v>
       </c>
       <c r="CO6" t="n">
-        <v>11628</v>
+        <v>199975</v>
       </c>
       <c r="CP6" t="n">
-        <v>9088</v>
+        <v>164888</v>
       </c>
       <c r="CQ6" t="n">
-        <v>10988</v>
+        <v>205473</v>
       </c>
       <c r="CR6" t="n">
-        <v>8311</v>
+        <v>153161</v>
       </c>
       <c r="CS6" t="n">
-        <v>10020</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>8819</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>10271</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>11809</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>11365</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>11444</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>11407</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>11250</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>10599</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>11236</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>9912</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>9468</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>10358</v>
+        <v>170626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F60-F69 - Transtornos da personalidade e do comportamento do adulto</t>
+          <t>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>283</v>
+        <v>1657</v>
       </c>
       <c r="C7" t="n">
-        <v>344</v>
+        <v>1773</v>
       </c>
       <c r="D7" t="n">
-        <v>371</v>
+        <v>1943</v>
       </c>
       <c r="E7" t="n">
-        <v>409</v>
+        <v>2120</v>
       </c>
       <c r="F7" t="n">
-        <v>482</v>
+        <v>2287</v>
       </c>
       <c r="G7" t="n">
-        <v>391</v>
+        <v>1978</v>
       </c>
       <c r="H7" t="n">
-        <v>402</v>
+        <v>1953</v>
       </c>
       <c r="I7" t="n">
-        <v>336</v>
+        <v>1714</v>
       </c>
       <c r="J7" t="n">
-        <v>283</v>
+        <v>1605</v>
       </c>
       <c r="K7" t="n">
-        <v>415</v>
+        <v>1877</v>
       </c>
       <c r="L7" t="n">
-        <v>311</v>
+        <v>1623</v>
       </c>
       <c r="M7" t="n">
-        <v>352</v>
+        <v>1710</v>
       </c>
       <c r="N7" t="n">
-        <v>927</v>
+        <v>3812</v>
       </c>
       <c r="O7" t="n">
-        <v>1206</v>
+        <v>4672</v>
       </c>
       <c r="P7" t="n">
-        <v>1335</v>
+        <v>4475</v>
       </c>
       <c r="Q7" t="n">
-        <v>1114</v>
+        <v>3862</v>
       </c>
       <c r="R7" t="n">
-        <v>1000</v>
+        <v>4065</v>
       </c>
       <c r="S7" t="n">
-        <v>823</v>
+        <v>3247</v>
       </c>
       <c r="T7" t="n">
-        <v>963</v>
+        <v>3171</v>
       </c>
       <c r="U7" t="n">
-        <v>873</v>
+        <v>2967</v>
       </c>
       <c r="V7" t="n">
-        <v>670</v>
+        <v>2641</v>
       </c>
       <c r="W7" t="n">
-        <v>555</v>
+        <v>2552</v>
       </c>
       <c r="X7" t="n">
-        <v>477</v>
+        <v>2105</v>
       </c>
       <c r="Y7" t="n">
-        <v>461</v>
+        <v>2345</v>
       </c>
       <c r="Z7" t="n">
-        <v>1513</v>
+        <v>3909</v>
       </c>
       <c r="AA7" t="n">
-        <v>1851</v>
+        <v>5454</v>
       </c>
       <c r="AB7" t="n">
-        <v>2628</v>
+        <v>7762</v>
       </c>
       <c r="AC7" t="n">
-        <v>1865</v>
+        <v>6322</v>
       </c>
       <c r="AD7" t="n">
-        <v>1742</v>
+        <v>6221</v>
       </c>
       <c r="AE7" t="n">
-        <v>1377</v>
+        <v>5272</v>
       </c>
       <c r="AF7" t="n">
-        <v>1303</v>
+        <v>4884</v>
       </c>
       <c r="AG7" t="n">
-        <v>1196</v>
+        <v>4657</v>
       </c>
       <c r="AH7" t="n">
-        <v>1247</v>
+        <v>4453</v>
       </c>
       <c r="AI7" t="n">
-        <v>1234</v>
+        <v>4753</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1055</v>
+        <v>3920</v>
       </c>
       <c r="AK7" t="n">
-        <v>1016</v>
+        <v>4254</v>
       </c>
       <c r="AL7" t="n">
-        <v>1698</v>
+        <v>4896</v>
       </c>
       <c r="AM7" t="n">
-        <v>2184</v>
+        <v>5898</v>
       </c>
       <c r="AN7" t="n">
-        <v>2500</v>
+        <v>6631</v>
       </c>
       <c r="AO7" t="n">
-        <v>2292</v>
+        <v>6376</v>
       </c>
       <c r="AP7" t="n">
-        <v>2587</v>
+        <v>6985</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2361</v>
+        <v>6589</v>
       </c>
       <c r="AR7" t="n">
-        <v>1942</v>
+        <v>5239</v>
       </c>
       <c r="AS7" t="n">
-        <v>2217</v>
+        <v>6121</v>
       </c>
       <c r="AT7" t="n">
-        <v>1835</v>
+        <v>5131</v>
       </c>
       <c r="AU7" t="n">
-        <v>1561</v>
+        <v>4167</v>
       </c>
       <c r="AV7" t="n">
-        <v>2012</v>
+        <v>5230</v>
       </c>
       <c r="AW7" t="n">
-        <v>1700</v>
+        <v>5123</v>
       </c>
       <c r="AX7" t="n">
-        <v>2381</v>
+        <v>7395</v>
       </c>
       <c r="AY7" t="n">
-        <v>2762</v>
+        <v>8196</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2748</v>
+        <v>8788</v>
       </c>
       <c r="BA7" t="n">
-        <v>2847</v>
+        <v>9032</v>
       </c>
       <c r="BB7" t="n">
-        <v>2476</v>
+        <v>8664</v>
       </c>
       <c r="BC7" t="n">
-        <v>2364</v>
+        <v>8459</v>
       </c>
       <c r="BD7" t="n">
-        <v>2100</v>
+        <v>7615</v>
       </c>
       <c r="BE7" t="n">
-        <v>1588</v>
+        <v>6152</v>
       </c>
       <c r="BF7" t="n">
-        <v>1252</v>
+        <v>5254</v>
       </c>
       <c r="BG7" t="n">
-        <v>2026</v>
+        <v>6012</v>
       </c>
       <c r="BH7" t="n">
-        <v>1969</v>
+        <v>5675</v>
       </c>
       <c r="BI7" t="n">
-        <v>1918</v>
+        <v>5635</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3050</v>
+        <v>7610</v>
       </c>
       <c r="BK7" t="n">
-        <v>3478</v>
+        <v>8493</v>
       </c>
       <c r="BL7" t="n">
-        <v>3238</v>
+        <v>8250</v>
       </c>
       <c r="BM7" t="n">
-        <v>3479</v>
+        <v>8973</v>
       </c>
       <c r="BN7" t="n">
-        <v>3758</v>
+        <v>9781</v>
       </c>
       <c r="BO7" t="n">
-        <v>3105</v>
+        <v>8944</v>
       </c>
       <c r="BP7" t="n">
-        <v>3049</v>
+        <v>8075</v>
       </c>
       <c r="BQ7" t="n">
-        <v>3078</v>
+        <v>8512</v>
       </c>
       <c r="BR7" t="n">
-        <v>2660</v>
+        <v>7712</v>
       </c>
       <c r="BS7" t="n">
-        <v>3089</v>
+        <v>8296</v>
       </c>
       <c r="BT7" t="n">
-        <v>2624</v>
+        <v>7662</v>
       </c>
       <c r="BU7" t="n">
-        <v>2462</v>
+        <v>7471</v>
       </c>
       <c r="BV7" t="n">
-        <v>3208</v>
+        <v>7946</v>
       </c>
       <c r="BW7" t="n">
-        <v>3373</v>
+        <v>8602</v>
       </c>
       <c r="BX7" t="n">
-        <v>3684</v>
+        <v>9185</v>
       </c>
       <c r="BY7" t="n">
-        <v>3801</v>
+        <v>9725</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4307</v>
+        <v>10607</v>
       </c>
       <c r="CA7" t="n">
-        <v>4017</v>
+        <v>9289</v>
       </c>
       <c r="CB7" t="n">
-        <v>3390</v>
+        <v>8816</v>
       </c>
       <c r="CC7" t="n">
-        <v>3997</v>
+        <v>9145</v>
       </c>
       <c r="CD7" t="n">
-        <v>3445</v>
+        <v>7940</v>
       </c>
       <c r="CE7" t="n">
-        <v>3908</v>
+        <v>9006</v>
       </c>
       <c r="CF7" t="n">
-        <v>3345</v>
+        <v>7828</v>
       </c>
       <c r="CG7" t="n">
-        <v>2762</v>
+        <v>6549</v>
       </c>
       <c r="CH7" t="n">
-        <v>4550</v>
+        <v>8944</v>
       </c>
       <c r="CI7" t="n">
-        <v>4713</v>
+        <v>10199</v>
       </c>
       <c r="CJ7" t="n">
-        <v>5375</v>
+        <v>11018</v>
       </c>
       <c r="CK7" t="n">
-        <v>4908</v>
+        <v>10831</v>
       </c>
       <c r="CL7" t="n">
-        <v>5844</v>
+        <v>13090</v>
       </c>
       <c r="CM7" t="n">
-        <v>4833</v>
+        <v>11280</v>
       </c>
       <c r="CN7" t="n">
-        <v>4761</v>
+        <v>10542</v>
       </c>
       <c r="CO7" t="n">
-        <v>4881</v>
+        <v>11628</v>
       </c>
       <c r="CP7" t="n">
-        <v>4331</v>
+        <v>9088</v>
       </c>
       <c r="CQ7" t="n">
-        <v>5124</v>
+        <v>10988</v>
       </c>
       <c r="CR7" t="n">
-        <v>3937</v>
+        <v>8311</v>
       </c>
       <c r="CS7" t="n">
-        <v>4132</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>5298</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>6194</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>7201</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>6872</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>7124</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>6714</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>6178</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>5762</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>6368</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>5195</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>4802</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>4811</v>
+        <v>10020</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F70-F79 - Retardo mental</t>
+          <t>F60-F69 - Transtornos da personalidade e do comportamento do adulto</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>761</v>
+        <v>283</v>
       </c>
       <c r="C8" t="n">
-        <v>878</v>
+        <v>344</v>
       </c>
       <c r="D8" t="n">
-        <v>911</v>
+        <v>371</v>
       </c>
       <c r="E8" t="n">
-        <v>989</v>
+        <v>409</v>
       </c>
       <c r="F8" t="n">
-        <v>1242</v>
+        <v>482</v>
       </c>
       <c r="G8" t="n">
-        <v>980</v>
+        <v>391</v>
       </c>
       <c r="H8" t="n">
-        <v>1157</v>
+        <v>402</v>
       </c>
       <c r="I8" t="n">
-        <v>1163</v>
+        <v>336</v>
       </c>
       <c r="J8" t="n">
-        <v>1036</v>
+        <v>283</v>
       </c>
       <c r="K8" t="n">
-        <v>1225</v>
+        <v>415</v>
       </c>
       <c r="L8" t="n">
-        <v>926</v>
+        <v>311</v>
       </c>
       <c r="M8" t="n">
-        <v>1170</v>
+        <v>352</v>
       </c>
       <c r="N8" t="n">
-        <v>2087</v>
+        <v>927</v>
       </c>
       <c r="O8" t="n">
-        <v>2728</v>
+        <v>1206</v>
       </c>
       <c r="P8" t="n">
-        <v>2642</v>
+        <v>1335</v>
       </c>
       <c r="Q8" t="n">
-        <v>2268</v>
+        <v>1114</v>
       </c>
       <c r="R8" t="n">
-        <v>2438</v>
+        <v>1000</v>
       </c>
       <c r="S8" t="n">
-        <v>1840</v>
+        <v>823</v>
       </c>
       <c r="T8" t="n">
-        <v>2116</v>
+        <v>963</v>
       </c>
       <c r="U8" t="n">
-        <v>2010</v>
+        <v>873</v>
       </c>
       <c r="V8" t="n">
-        <v>1629</v>
+        <v>670</v>
       </c>
       <c r="W8" t="n">
-        <v>1545</v>
+        <v>555</v>
       </c>
       <c r="X8" t="n">
-        <v>1128</v>
+        <v>477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1063</v>
+        <v>461</v>
       </c>
       <c r="Z8" t="n">
-        <v>2518</v>
+        <v>1513</v>
       </c>
       <c r="AA8" t="n">
-        <v>3785</v>
+        <v>1851</v>
       </c>
       <c r="AB8" t="n">
-        <v>5980</v>
+        <v>2628</v>
       </c>
       <c r="AC8" t="n">
-        <v>4426</v>
+        <v>1865</v>
       </c>
       <c r="AD8" t="n">
-        <v>3723</v>
+        <v>1742</v>
       </c>
       <c r="AE8" t="n">
-        <v>3084</v>
+        <v>1377</v>
       </c>
       <c r="AF8" t="n">
-        <v>3106</v>
+        <v>1303</v>
       </c>
       <c r="AG8" t="n">
-        <v>2820</v>
+        <v>1196</v>
       </c>
       <c r="AH8" t="n">
-        <v>2799</v>
+        <v>1247</v>
       </c>
       <c r="AI8" t="n">
-        <v>3122</v>
+        <v>1234</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2374</v>
+        <v>1055</v>
       </c>
       <c r="AK8" t="n">
-        <v>2358</v>
+        <v>1016</v>
       </c>
       <c r="AL8" t="n">
-        <v>3097</v>
+        <v>1698</v>
       </c>
       <c r="AM8" t="n">
-        <v>3876</v>
+        <v>2184</v>
       </c>
       <c r="AN8" t="n">
-        <v>4426</v>
+        <v>2500</v>
       </c>
       <c r="AO8" t="n">
-        <v>4220</v>
+        <v>2292</v>
       </c>
       <c r="AP8" t="n">
-        <v>4794</v>
+        <v>2587</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4324</v>
+        <v>2361</v>
       </c>
       <c r="AR8" t="n">
-        <v>3392</v>
+        <v>1942</v>
       </c>
       <c r="AS8" t="n">
-        <v>3931</v>
+        <v>2217</v>
       </c>
       <c r="AT8" t="n">
-        <v>3416</v>
+        <v>1835</v>
       </c>
       <c r="AU8" t="n">
-        <v>2961</v>
+        <v>1561</v>
       </c>
       <c r="AV8" t="n">
-        <v>3834</v>
+        <v>2012</v>
       </c>
       <c r="AW8" t="n">
-        <v>3263</v>
+        <v>1700</v>
       </c>
       <c r="AX8" t="n">
-        <v>3397</v>
+        <v>2381</v>
       </c>
       <c r="AY8" t="n">
-        <v>4060</v>
+        <v>2762</v>
       </c>
       <c r="AZ8" t="n">
-        <v>3927</v>
+        <v>2748</v>
       </c>
       <c r="BA8" t="n">
-        <v>3910</v>
+        <v>2847</v>
       </c>
       <c r="BB8" t="n">
-        <v>3367</v>
+        <v>2476</v>
       </c>
       <c r="BC8" t="n">
-        <v>3090</v>
+        <v>2364</v>
       </c>
       <c r="BD8" t="n">
-        <v>2470</v>
+        <v>2100</v>
       </c>
       <c r="BE8" t="n">
-        <v>1858</v>
+        <v>1588</v>
       </c>
       <c r="BF8" t="n">
-        <v>1663</v>
+        <v>1252</v>
       </c>
       <c r="BG8" t="n">
+        <v>2026</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>1969</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1918</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>3050</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>3478</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>3238</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>3479</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>3758</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>3105</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>3049</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>3078</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>2660</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>3089</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>2624</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>2462</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>3208</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>3373</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>3684</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>3801</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>4307</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>4017</v>
+      </c>
+      <c r="CB8" t="n">
         <v>3390</v>
       </c>
-      <c r="BH8" t="n">
-        <v>3726</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>3229</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>4677</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>5403</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>5100</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>5285</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>5554</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>4544</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>5129</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>4885</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>3450</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>4053</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>4163</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>3450</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>5239</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>5904</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>6043</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>6495</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>7134</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>5914</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>5766</v>
-      </c>
       <c r="CC8" t="n">
-        <v>6496</v>
+        <v>3997</v>
       </c>
       <c r="CD8" t="n">
-        <v>5446</v>
+        <v>3445</v>
       </c>
       <c r="CE8" t="n">
-        <v>6165</v>
+        <v>3908</v>
       </c>
       <c r="CF8" t="n">
-        <v>5307</v>
+        <v>3345</v>
       </c>
       <c r="CG8" t="n">
-        <v>3878</v>
+        <v>2762</v>
       </c>
       <c r="CH8" t="n">
-        <v>7087</v>
+        <v>4550</v>
       </c>
       <c r="CI8" t="n">
-        <v>8003</v>
+        <v>4713</v>
       </c>
       <c r="CJ8" t="n">
-        <v>8574</v>
+        <v>5375</v>
       </c>
       <c r="CK8" t="n">
-        <v>8180</v>
+        <v>4908</v>
       </c>
       <c r="CL8" t="n">
-        <v>9599</v>
+        <v>5844</v>
       </c>
       <c r="CM8" t="n">
-        <v>8015</v>
+        <v>4833</v>
       </c>
       <c r="CN8" t="n">
-        <v>7892</v>
+        <v>4761</v>
       </c>
       <c r="CO8" t="n">
-        <v>8494</v>
+        <v>4881</v>
       </c>
       <c r="CP8" t="n">
-        <v>7279</v>
+        <v>4331</v>
       </c>
       <c r="CQ8" t="n">
-        <v>8697</v>
+        <v>5124</v>
       </c>
       <c r="CR8" t="n">
-        <v>6686</v>
+        <v>3937</v>
       </c>
       <c r="CS8" t="n">
-        <v>6960</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>7076</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>8465</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>9506</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>9572</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>10197</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>9469</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>9111</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>8930</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>10029</v>
-      </c>
-      <c r="DC8" t="n">
-        <v>8803</v>
-      </c>
-      <c r="DD8" t="n">
-        <v>7927</v>
-      </c>
-      <c r="DE8" t="n">
-        <v>8232</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>F80-F89 - Transtornos do desenvolvimento psicológico</t>
+          <t>F70-F79 - Retardo mental</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2063</v>
+        <v>761</v>
       </c>
       <c r="C9" t="n">
-        <v>3441</v>
+        <v>878</v>
       </c>
       <c r="D9" t="n">
-        <v>3696</v>
+        <v>911</v>
       </c>
       <c r="E9" t="n">
-        <v>4321</v>
+        <v>989</v>
       </c>
       <c r="F9" t="n">
-        <v>4601</v>
+        <v>1242</v>
       </c>
       <c r="G9" t="n">
-        <v>2909</v>
+        <v>980</v>
       </c>
       <c r="H9" t="n">
-        <v>4654</v>
+        <v>1157</v>
       </c>
       <c r="I9" t="n">
-        <v>3776</v>
+        <v>1163</v>
       </c>
       <c r="J9" t="n">
-        <v>3433</v>
+        <v>1036</v>
       </c>
       <c r="K9" t="n">
-        <v>4776</v>
+        <v>1225</v>
       </c>
       <c r="L9" t="n">
-        <v>2936</v>
+        <v>926</v>
       </c>
       <c r="M9" t="n">
-        <v>2791</v>
+        <v>1170</v>
       </c>
       <c r="N9" t="n">
-        <v>5501</v>
+        <v>2087</v>
       </c>
       <c r="O9" t="n">
-        <v>8604</v>
+        <v>2728</v>
       </c>
       <c r="P9" t="n">
-        <v>8752</v>
+        <v>2642</v>
       </c>
       <c r="Q9" t="n">
-        <v>8279</v>
+        <v>2268</v>
       </c>
       <c r="R9" t="n">
-        <v>8941</v>
+        <v>2438</v>
       </c>
       <c r="S9" t="n">
-        <v>5536</v>
+        <v>1840</v>
       </c>
       <c r="T9" t="n">
-        <v>7591</v>
+        <v>2116</v>
       </c>
       <c r="U9" t="n">
-        <v>7010</v>
+        <v>2010</v>
       </c>
       <c r="V9" t="n">
-        <v>5755</v>
+        <v>1629</v>
       </c>
       <c r="W9" t="n">
-        <v>5627</v>
+        <v>1545</v>
       </c>
       <c r="X9" t="n">
-        <v>3979</v>
+        <v>1128</v>
       </c>
       <c r="Y9" t="n">
-        <v>2622</v>
+        <v>1063</v>
       </c>
       <c r="Z9" t="n">
-        <v>6479</v>
+        <v>2518</v>
       </c>
       <c r="AA9" t="n">
-        <v>10843</v>
+        <v>3785</v>
       </c>
       <c r="AB9" t="n">
-        <v>13044</v>
+        <v>5980</v>
       </c>
       <c r="AC9" t="n">
-        <v>9814</v>
+        <v>4426</v>
       </c>
       <c r="AD9" t="n">
-        <v>9939</v>
+        <v>3723</v>
       </c>
       <c r="AE9" t="n">
-        <v>7359</v>
+        <v>3084</v>
       </c>
       <c r="AF9" t="n">
-        <v>9153</v>
+        <v>3106</v>
       </c>
       <c r="AG9" t="n">
-        <v>9354</v>
+        <v>2820</v>
       </c>
       <c r="AH9" t="n">
-        <v>8599</v>
+        <v>2799</v>
       </c>
       <c r="AI9" t="n">
-        <v>8312</v>
+        <v>3122</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5855</v>
+        <v>2374</v>
       </c>
       <c r="AK9" t="n">
-        <v>4965</v>
+        <v>2358</v>
       </c>
       <c r="AL9" t="n">
-        <v>6988</v>
+        <v>3097</v>
       </c>
       <c r="AM9" t="n">
-        <v>10557</v>
+        <v>3876</v>
       </c>
       <c r="AN9" t="n">
-        <v>13106</v>
+        <v>4426</v>
       </c>
       <c r="AO9" t="n">
-        <v>12519</v>
+        <v>4220</v>
       </c>
       <c r="AP9" t="n">
-        <v>14052</v>
+        <v>4794</v>
       </c>
       <c r="AQ9" t="n">
-        <v>11446</v>
+        <v>4324</v>
       </c>
       <c r="AR9" t="n">
-        <v>10606</v>
+        <v>3392</v>
       </c>
       <c r="AS9" t="n">
-        <v>12943</v>
+        <v>3931</v>
       </c>
       <c r="AT9" t="n">
-        <v>10981</v>
+        <v>3416</v>
       </c>
       <c r="AU9" t="n">
-        <v>8859</v>
+        <v>2961</v>
       </c>
       <c r="AV9" t="n">
-        <v>10810</v>
+        <v>3834</v>
       </c>
       <c r="AW9" t="n">
-        <v>7485</v>
+        <v>3263</v>
       </c>
       <c r="AX9" t="n">
-        <v>8053</v>
+        <v>3397</v>
       </c>
       <c r="AY9" t="n">
-        <v>9634</v>
+        <v>4060</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8489</v>
+        <v>3927</v>
       </c>
       <c r="BA9" t="n">
-        <v>7397</v>
+        <v>3910</v>
       </c>
       <c r="BB9" t="n">
-        <v>5880</v>
+        <v>3367</v>
       </c>
       <c r="BC9" t="n">
-        <v>4795</v>
+        <v>3090</v>
       </c>
       <c r="BD9" t="n">
-        <v>3307</v>
+        <v>2470</v>
       </c>
       <c r="BE9" t="n">
-        <v>2103</v>
+        <v>1858</v>
       </c>
       <c r="BF9" t="n">
-        <v>1611</v>
+        <v>1663</v>
       </c>
       <c r="BG9" t="n">
-        <v>8449</v>
+        <v>3390</v>
       </c>
       <c r="BH9" t="n">
-        <v>9606</v>
+        <v>3726</v>
       </c>
       <c r="BI9" t="n">
-        <v>7627</v>
+        <v>3229</v>
       </c>
       <c r="BJ9" t="n">
-        <v>12967</v>
+        <v>4677</v>
       </c>
       <c r="BK9" t="n">
-        <v>15330</v>
+        <v>5403</v>
       </c>
       <c r="BL9" t="n">
-        <v>14223</v>
+        <v>5100</v>
       </c>
       <c r="BM9" t="n">
-        <v>15113</v>
+        <v>5285</v>
       </c>
       <c r="BN9" t="n">
-        <v>16417</v>
+        <v>5554</v>
       </c>
       <c r="BO9" t="n">
-        <v>12612</v>
+        <v>4544</v>
       </c>
       <c r="BP9" t="n">
-        <v>12732</v>
+        <v>5129</v>
       </c>
       <c r="BQ9" t="n">
-        <v>12025</v>
+        <v>4885</v>
       </c>
       <c r="BR9" t="n">
-        <v>8903</v>
+        <v>3450</v>
       </c>
       <c r="BS9" t="n">
-        <v>11038</v>
+        <v>4053</v>
       </c>
       <c r="BT9" t="n">
-        <v>10546</v>
+        <v>4163</v>
       </c>
       <c r="BU9" t="n">
-        <v>8021</v>
+        <v>3450</v>
       </c>
       <c r="BV9" t="n">
-        <v>17278</v>
+        <v>5239</v>
       </c>
       <c r="BW9" t="n">
-        <v>20633</v>
+        <v>5904</v>
       </c>
       <c r="BX9" t="n">
-        <v>22318</v>
+        <v>6043</v>
       </c>
       <c r="BY9" t="n">
-        <v>22481</v>
+        <v>6495</v>
       </c>
       <c r="BZ9" t="n">
-        <v>24208</v>
+        <v>7134</v>
       </c>
       <c r="CA9" t="n">
-        <v>18244</v>
+        <v>5914</v>
       </c>
       <c r="CB9" t="n">
-        <v>19373</v>
+        <v>5766</v>
       </c>
       <c r="CC9" t="n">
-        <v>21358</v>
+        <v>6496</v>
       </c>
       <c r="CD9" t="n">
-        <v>17452</v>
+        <v>5446</v>
       </c>
       <c r="CE9" t="n">
-        <v>19068</v>
+        <v>6165</v>
       </c>
       <c r="CF9" t="n">
-        <v>14697</v>
+        <v>5307</v>
       </c>
       <c r="CG9" t="n">
-        <v>10334</v>
+        <v>3878</v>
       </c>
       <c r="CH9" t="n">
-        <v>24599</v>
+        <v>7087</v>
       </c>
       <c r="CI9" t="n">
-        <v>29230</v>
+        <v>8003</v>
       </c>
       <c r="CJ9" t="n">
-        <v>32748</v>
+        <v>8574</v>
       </c>
       <c r="CK9" t="n">
-        <v>30967</v>
+        <v>8180</v>
       </c>
       <c r="CL9" t="n">
-        <v>37304</v>
+        <v>9599</v>
       </c>
       <c r="CM9" t="n">
-        <v>27450</v>
+        <v>8015</v>
       </c>
       <c r="CN9" t="n">
-        <v>29697</v>
+        <v>7892</v>
       </c>
       <c r="CO9" t="n">
-        <v>33254</v>
+        <v>8494</v>
       </c>
       <c r="CP9" t="n">
-        <v>25514</v>
+        <v>7279</v>
       </c>
       <c r="CQ9" t="n">
-        <v>31836</v>
+        <v>8697</v>
       </c>
       <c r="CR9" t="n">
-        <v>22050</v>
+        <v>6686</v>
       </c>
       <c r="CS9" t="n">
-        <v>20196</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>27199</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>35192</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>40199</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>40797</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>40857</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>36036</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>36527</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>36068</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>38371</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>33271</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>28804</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>28104</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência</t>
+          <t>F80-F89 - Transtornos do desenvolvimento psicológico</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1799</v>
+        <v>2063</v>
       </c>
       <c r="C10" t="n">
-        <v>2536</v>
+        <v>3441</v>
       </c>
       <c r="D10" t="n">
-        <v>2709</v>
+        <v>3696</v>
       </c>
       <c r="E10" t="n">
-        <v>2998</v>
+        <v>4321</v>
       </c>
       <c r="F10" t="n">
-        <v>3077</v>
+        <v>4601</v>
       </c>
       <c r="G10" t="n">
-        <v>2184</v>
+        <v>2909</v>
       </c>
       <c r="H10" t="n">
-        <v>3020</v>
+        <v>4654</v>
       </c>
       <c r="I10" t="n">
-        <v>2789</v>
+        <v>3776</v>
       </c>
       <c r="J10" t="n">
-        <v>2522</v>
+        <v>3433</v>
       </c>
       <c r="K10" t="n">
-        <v>2939</v>
+        <v>4776</v>
       </c>
       <c r="L10" t="n">
-        <v>2230</v>
+        <v>2936</v>
       </c>
       <c r="M10" t="n">
-        <v>2146</v>
+        <v>2791</v>
       </c>
       <c r="N10" t="n">
-        <v>4943</v>
+        <v>5501</v>
       </c>
       <c r="O10" t="n">
-        <v>6995</v>
+        <v>8604</v>
       </c>
       <c r="P10" t="n">
-        <v>6900</v>
+        <v>8752</v>
       </c>
       <c r="Q10" t="n">
-        <v>6804</v>
+        <v>8279</v>
       </c>
       <c r="R10" t="n">
-        <v>6145</v>
+        <v>8941</v>
       </c>
       <c r="S10" t="n">
-        <v>4255</v>
+        <v>5536</v>
       </c>
       <c r="T10" t="n">
-        <v>5015</v>
+        <v>7591</v>
       </c>
       <c r="U10" t="n">
-        <v>4862</v>
+        <v>7010</v>
       </c>
       <c r="V10" t="n">
-        <v>4319</v>
+        <v>5755</v>
       </c>
       <c r="W10" t="n">
-        <v>4200</v>
+        <v>5627</v>
       </c>
       <c r="X10" t="n">
-        <v>2828</v>
+        <v>3979</v>
       </c>
       <c r="Y10" t="n">
-        <v>2711</v>
+        <v>2622</v>
       </c>
       <c r="Z10" t="n">
-        <v>4611</v>
+        <v>6479</v>
       </c>
       <c r="AA10" t="n">
-        <v>7136</v>
+        <v>10843</v>
       </c>
       <c r="AB10" t="n">
-        <v>10013</v>
+        <v>13044</v>
       </c>
       <c r="AC10" t="n">
-        <v>8225</v>
+        <v>9814</v>
       </c>
       <c r="AD10" t="n">
-        <v>8736</v>
+        <v>9939</v>
       </c>
       <c r="AE10" t="n">
-        <v>6424</v>
+        <v>7359</v>
       </c>
       <c r="AF10" t="n">
-        <v>6955</v>
+        <v>9153</v>
       </c>
       <c r="AG10" t="n">
-        <v>7180</v>
+        <v>9354</v>
       </c>
       <c r="AH10" t="n">
-        <v>7167</v>
+        <v>8599</v>
       </c>
       <c r="AI10" t="n">
-        <v>6940</v>
+        <v>8312</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4899</v>
+        <v>5855</v>
       </c>
       <c r="AK10" t="n">
-        <v>5076</v>
+        <v>4965</v>
       </c>
       <c r="AL10" t="n">
-        <v>5339</v>
+        <v>6988</v>
       </c>
       <c r="AM10" t="n">
-        <v>7818</v>
+        <v>10557</v>
       </c>
       <c r="AN10" t="n">
-        <v>9265</v>
+        <v>13106</v>
       </c>
       <c r="AO10" t="n">
-        <v>8712</v>
+        <v>12519</v>
       </c>
       <c r="AP10" t="n">
-        <v>9211</v>
+        <v>14052</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7938</v>
+        <v>11446</v>
       </c>
       <c r="AR10" t="n">
-        <v>7320</v>
+        <v>10606</v>
       </c>
       <c r="AS10" t="n">
-        <v>8521</v>
+        <v>12943</v>
       </c>
       <c r="AT10" t="n">
-        <v>7942</v>
+        <v>10981</v>
       </c>
       <c r="AU10" t="n">
-        <v>6158</v>
+        <v>8859</v>
       </c>
       <c r="AV10" t="n">
-        <v>7220</v>
+        <v>10810</v>
       </c>
       <c r="AW10" t="n">
-        <v>5828</v>
+        <v>7485</v>
       </c>
       <c r="AX10" t="n">
-        <v>6064</v>
+        <v>8053</v>
       </c>
       <c r="AY10" t="n">
-        <v>6993</v>
+        <v>9634</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7078</v>
+        <v>8489</v>
       </c>
       <c r="BA10" t="n">
-        <v>6639</v>
+        <v>7397</v>
       </c>
       <c r="BB10" t="n">
-        <v>5716</v>
+        <v>5880</v>
       </c>
       <c r="BC10" t="n">
-        <v>5223</v>
+        <v>4795</v>
       </c>
       <c r="BD10" t="n">
-        <v>4467</v>
+        <v>3307</v>
       </c>
       <c r="BE10" t="n">
-        <v>3318</v>
+        <v>2103</v>
       </c>
       <c r="BF10" t="n">
-        <v>2701</v>
+        <v>1611</v>
       </c>
       <c r="BG10" t="n">
-        <v>6265</v>
+        <v>8449</v>
       </c>
       <c r="BH10" t="n">
-        <v>7111</v>
+        <v>9606</v>
       </c>
       <c r="BI10" t="n">
-        <v>6133</v>
+        <v>7627</v>
       </c>
       <c r="BJ10" t="n">
-        <v>7714</v>
+        <v>12967</v>
       </c>
       <c r="BK10" t="n">
-        <v>9351</v>
+        <v>15330</v>
       </c>
       <c r="BL10" t="n">
-        <v>8697</v>
+        <v>14223</v>
       </c>
       <c r="BM10" t="n">
-        <v>8929</v>
+        <v>15113</v>
       </c>
       <c r="BN10" t="n">
-        <v>9605</v>
+        <v>16417</v>
       </c>
       <c r="BO10" t="n">
-        <v>7800</v>
+        <v>12612</v>
       </c>
       <c r="BP10" t="n">
-        <v>7442</v>
+        <v>12732</v>
       </c>
       <c r="BQ10" t="n">
-        <v>7441</v>
+        <v>12025</v>
       </c>
       <c r="BR10" t="n">
-        <v>6692</v>
+        <v>8903</v>
       </c>
       <c r="BS10" t="n">
-        <v>7407</v>
+        <v>11038</v>
       </c>
       <c r="BT10" t="n">
-        <v>6926</v>
+        <v>10546</v>
       </c>
       <c r="BU10" t="n">
-        <v>5966</v>
+        <v>8021</v>
       </c>
       <c r="BV10" t="n">
-        <v>9994</v>
+        <v>17278</v>
       </c>
       <c r="BW10" t="n">
-        <v>12421</v>
+        <v>20633</v>
       </c>
       <c r="BX10" t="n">
-        <v>13145</v>
+        <v>22318</v>
       </c>
       <c r="BY10" t="n">
-        <v>13971</v>
+        <v>22481</v>
       </c>
       <c r="BZ10" t="n">
-        <v>15016</v>
+        <v>24208</v>
       </c>
       <c r="CA10" t="n">
-        <v>11298</v>
+        <v>18244</v>
       </c>
       <c r="CB10" t="n">
-        <v>11595</v>
+        <v>19373</v>
       </c>
       <c r="CC10" t="n">
-        <v>13229</v>
+        <v>21358</v>
       </c>
       <c r="CD10" t="n">
-        <v>10389</v>
+        <v>17452</v>
       </c>
       <c r="CE10" t="n">
-        <v>11897</v>
+        <v>19068</v>
       </c>
       <c r="CF10" t="n">
-        <v>8863</v>
+        <v>14697</v>
       </c>
       <c r="CG10" t="n">
-        <v>6163</v>
+        <v>10334</v>
       </c>
       <c r="CH10" t="n">
-        <v>15687</v>
+        <v>24599</v>
       </c>
       <c r="CI10" t="n">
-        <v>19971</v>
+        <v>29230</v>
       </c>
       <c r="CJ10" t="n">
-        <v>22603</v>
+        <v>32748</v>
       </c>
       <c r="CK10" t="n">
-        <v>20690</v>
+        <v>30967</v>
       </c>
       <c r="CL10" t="n">
-        <v>23938</v>
+        <v>37304</v>
       </c>
       <c r="CM10" t="n">
-        <v>17555</v>
+        <v>27450</v>
       </c>
       <c r="CN10" t="n">
-        <v>18686</v>
+        <v>29697</v>
       </c>
       <c r="CO10" t="n">
-        <v>19631</v>
+        <v>33254</v>
       </c>
       <c r="CP10" t="n">
-        <v>15028</v>
+        <v>25514</v>
       </c>
       <c r="CQ10" t="n">
-        <v>18681</v>
+        <v>31836</v>
       </c>
       <c r="CR10" t="n">
-        <v>12518</v>
+        <v>22050</v>
       </c>
       <c r="CS10" t="n">
-        <v>12881</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>19375</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>25846</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>30424</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>30272</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>29221</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>26037</v>
-      </c>
-      <c r="CZ10" t="n">
-        <v>25904</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>25153</v>
-      </c>
-      <c r="DB10" t="n">
-        <v>26289</v>
-      </c>
-      <c r="DC10" t="n">
-        <v>22056</v>
-      </c>
-      <c r="DD10" t="n">
-        <v>18804</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>18457</v>
+        <v>20196</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>F99-F99 - Transtorno mental não especificado</t>
+          <t>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>282</v>
+        <v>1799</v>
       </c>
       <c r="C11" t="n">
-        <v>283</v>
+        <v>2536</v>
       </c>
       <c r="D11" t="n">
-        <v>371</v>
+        <v>2709</v>
       </c>
       <c r="E11" t="n">
-        <v>483</v>
+        <v>2998</v>
       </c>
       <c r="F11" t="n">
-        <v>413</v>
+        <v>3077</v>
       </c>
       <c r="G11" t="n">
-        <v>419</v>
+        <v>2184</v>
       </c>
       <c r="H11" t="n">
-        <v>543</v>
+        <v>3020</v>
       </c>
       <c r="I11" t="n">
-        <v>423</v>
+        <v>2789</v>
       </c>
       <c r="J11" t="n">
-        <v>408</v>
+        <v>2522</v>
       </c>
       <c r="K11" t="n">
-        <v>692</v>
+        <v>2939</v>
       </c>
       <c r="L11" t="n">
-        <v>396</v>
+        <v>2230</v>
       </c>
       <c r="M11" t="n">
-        <v>746</v>
+        <v>2146</v>
       </c>
       <c r="N11" t="n">
-        <v>1386</v>
+        <v>4943</v>
       </c>
       <c r="O11" t="n">
-        <v>1806</v>
+        <v>6995</v>
       </c>
       <c r="P11" t="n">
-        <v>2867</v>
+        <v>6900</v>
       </c>
       <c r="Q11" t="n">
-        <v>2278</v>
+        <v>6804</v>
       </c>
       <c r="R11" t="n">
-        <v>1827</v>
+        <v>6145</v>
       </c>
       <c r="S11" t="n">
-        <v>1148</v>
+        <v>4255</v>
       </c>
       <c r="T11" t="n">
-        <v>2030</v>
+        <v>5015</v>
       </c>
       <c r="U11" t="n">
-        <v>1338</v>
+        <v>4862</v>
       </c>
       <c r="V11" t="n">
-        <v>1204</v>
+        <v>4319</v>
       </c>
       <c r="W11" t="n">
-        <v>809</v>
+        <v>4200</v>
       </c>
       <c r="X11" t="n">
-        <v>482</v>
+        <v>2828</v>
       </c>
       <c r="Y11" t="n">
-        <v>487</v>
+        <v>2711</v>
       </c>
       <c r="Z11" t="n">
-        <v>1975</v>
+        <v>4611</v>
       </c>
       <c r="AA11" t="n">
-        <v>2317</v>
+        <v>7136</v>
       </c>
       <c r="AB11" t="n">
-        <v>3155</v>
+        <v>10013</v>
       </c>
       <c r="AC11" t="n">
-        <v>3013</v>
+        <v>8225</v>
       </c>
       <c r="AD11" t="n">
-        <v>2613</v>
+        <v>8736</v>
       </c>
       <c r="AE11" t="n">
-        <v>2459</v>
+        <v>6424</v>
       </c>
       <c r="AF11" t="n">
-        <v>2302</v>
+        <v>6955</v>
       </c>
       <c r="AG11" t="n">
-        <v>2185</v>
+        <v>7180</v>
       </c>
       <c r="AH11" t="n">
-        <v>1927</v>
+        <v>7167</v>
       </c>
       <c r="AI11" t="n">
-        <v>2686</v>
+        <v>6940</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1559</v>
+        <v>4899</v>
       </c>
       <c r="AK11" t="n">
-        <v>2112</v>
+        <v>5076</v>
       </c>
       <c r="AL11" t="n">
-        <v>2851</v>
+        <v>5339</v>
       </c>
       <c r="AM11" t="n">
-        <v>3450</v>
+        <v>7818</v>
       </c>
       <c r="AN11" t="n">
-        <v>3516</v>
+        <v>9265</v>
       </c>
       <c r="AO11" t="n">
-        <v>3115</v>
+        <v>8712</v>
       </c>
       <c r="AP11" t="n">
-        <v>3292</v>
+        <v>9211</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3371</v>
+        <v>7938</v>
       </c>
       <c r="AR11" t="n">
-        <v>2886</v>
+        <v>7320</v>
       </c>
       <c r="AS11" t="n">
-        <v>3606</v>
+        <v>8521</v>
       </c>
       <c r="AT11" t="n">
-        <v>3211</v>
+        <v>7942</v>
       </c>
       <c r="AU11" t="n">
-        <v>2443</v>
+        <v>6158</v>
       </c>
       <c r="AV11" t="n">
-        <v>2729</v>
+        <v>7220</v>
       </c>
       <c r="AW11" t="n">
-        <v>2464</v>
+        <v>5828</v>
       </c>
       <c r="AX11" t="n">
-        <v>3864</v>
+        <v>6064</v>
       </c>
       <c r="AY11" t="n">
-        <v>3742</v>
+        <v>6993</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3468</v>
+        <v>7078</v>
       </c>
       <c r="BA11" t="n">
-        <v>3402</v>
+        <v>6639</v>
       </c>
       <c r="BB11" t="n">
-        <v>3627</v>
+        <v>5716</v>
       </c>
       <c r="BC11" t="n">
-        <v>4337</v>
+        <v>5223</v>
       </c>
       <c r="BD11" t="n">
-        <v>7129</v>
+        <v>4467</v>
       </c>
       <c r="BE11" t="n">
-        <v>4225</v>
+        <v>3318</v>
       </c>
       <c r="BF11" t="n">
-        <v>3767</v>
+        <v>2701</v>
       </c>
       <c r="BG11" t="n">
-        <v>4293</v>
+        <v>6265</v>
       </c>
       <c r="BH11" t="n">
-        <v>3905</v>
+        <v>7111</v>
       </c>
       <c r="BI11" t="n">
-        <v>4395</v>
+        <v>6133</v>
       </c>
       <c r="BJ11" t="n">
-        <v>3007</v>
+        <v>7714</v>
       </c>
       <c r="BK11" t="n">
-        <v>3329</v>
+        <v>9351</v>
       </c>
       <c r="BL11" t="n">
-        <v>3201</v>
+        <v>8697</v>
       </c>
       <c r="BM11" t="n">
-        <v>3429</v>
+        <v>8929</v>
       </c>
       <c r="BN11" t="n">
-        <v>3634</v>
+        <v>9605</v>
       </c>
       <c r="BO11" t="n">
-        <v>3641</v>
+        <v>7800</v>
       </c>
       <c r="BP11" t="n">
-        <v>3490</v>
+        <v>7442</v>
       </c>
       <c r="BQ11" t="n">
-        <v>3698</v>
+        <v>7441</v>
       </c>
       <c r="BR11" t="n">
-        <v>3370</v>
+        <v>6692</v>
       </c>
       <c r="BS11" t="n">
-        <v>4117</v>
+        <v>7407</v>
       </c>
       <c r="BT11" t="n">
-        <v>3518</v>
+        <v>6926</v>
       </c>
       <c r="BU11" t="n">
-        <v>2913</v>
+        <v>5966</v>
       </c>
       <c r="BV11" t="n">
-        <v>2993</v>
+        <v>9994</v>
       </c>
       <c r="BW11" t="n">
-        <v>3875</v>
+        <v>12421</v>
       </c>
       <c r="BX11" t="n">
-        <v>3706</v>
+        <v>13145</v>
       </c>
       <c r="BY11" t="n">
-        <v>3582</v>
+        <v>13971</v>
       </c>
       <c r="BZ11" t="n">
-        <v>4075</v>
+        <v>15016</v>
       </c>
       <c r="CA11" t="n">
-        <v>3673</v>
+        <v>11298</v>
       </c>
       <c r="CB11" t="n">
-        <v>3630</v>
+        <v>11595</v>
       </c>
       <c r="CC11" t="n">
-        <v>4340</v>
+        <v>13229</v>
       </c>
       <c r="CD11" t="n">
-        <v>3026</v>
+        <v>10389</v>
       </c>
       <c r="CE11" t="n">
-        <v>3766</v>
+        <v>11897</v>
       </c>
       <c r="CF11" t="n">
-        <v>2879</v>
+        <v>8863</v>
       </c>
       <c r="CG11" t="n">
-        <v>2723</v>
+        <v>6163</v>
       </c>
       <c r="CH11" t="n">
-        <v>4510</v>
+        <v>15687</v>
       </c>
       <c r="CI11" t="n">
-        <v>4888</v>
+        <v>19971</v>
       </c>
       <c r="CJ11" t="n">
-        <v>4987</v>
+        <v>22603</v>
       </c>
       <c r="CK11" t="n">
-        <v>4681</v>
+        <v>20690</v>
       </c>
       <c r="CL11" t="n">
-        <v>5728</v>
+        <v>23938</v>
       </c>
       <c r="CM11" t="n">
-        <v>4873</v>
+        <v>17555</v>
       </c>
       <c r="CN11" t="n">
-        <v>4728</v>
+        <v>18686</v>
       </c>
       <c r="CO11" t="n">
-        <v>4929</v>
+        <v>19631</v>
       </c>
       <c r="CP11" t="n">
-        <v>4116</v>
+        <v>15028</v>
       </c>
       <c r="CQ11" t="n">
-        <v>4730</v>
+        <v>18681</v>
       </c>
       <c r="CR11" t="n">
-        <v>3623</v>
+        <v>12518</v>
       </c>
       <c r="CS11" t="n">
-        <v>4090</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>3683</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>4170</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>5042</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>4673</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>5122</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>4391</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>4410</v>
-      </c>
-      <c r="DA11" t="n">
-        <v>4482</v>
-      </c>
-      <c r="DB11" t="n">
-        <v>4639</v>
-      </c>
-      <c r="DC11" t="n">
-        <v>4754</v>
-      </c>
-      <c r="DD11" t="n">
-        <v>4434</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>4846</v>
+        <v>12881</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>F99-F99 - Transtorno mental não especificado</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>282</v>
+      </c>
+      <c r="C12" t="n">
+        <v>283</v>
+      </c>
+      <c r="D12" t="n">
+        <v>371</v>
+      </c>
+      <c r="E12" t="n">
+        <v>483</v>
+      </c>
+      <c r="F12" t="n">
+        <v>413</v>
+      </c>
+      <c r="G12" t="n">
+        <v>419</v>
+      </c>
+      <c r="H12" t="n">
+        <v>543</v>
+      </c>
+      <c r="I12" t="n">
+        <v>423</v>
+      </c>
+      <c r="J12" t="n">
+        <v>408</v>
+      </c>
+      <c r="K12" t="n">
+        <v>692</v>
+      </c>
+      <c r="L12" t="n">
+        <v>396</v>
+      </c>
+      <c r="M12" t="n">
+        <v>746</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1386</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1806</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2867</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2278</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1827</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1148</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2030</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1338</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1204</v>
+      </c>
+      <c r="W12" t="n">
+        <v>809</v>
+      </c>
+      <c r="X12" t="n">
+        <v>482</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>487</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1975</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2317</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>3155</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3013</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2613</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2459</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>2302</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2185</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1927</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2686</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1559</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2112</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2851</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>3450</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3516</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>3115</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3292</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>3371</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>2886</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>3606</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3211</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>2443</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>2729</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2464</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>3864</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>3742</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>3468</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>3402</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>3627</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>4337</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>7129</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>4225</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>3767</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>4293</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3905</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>4395</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>3007</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>3329</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>3201</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>3429</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>3634</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>3641</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>3490</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>3698</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>3370</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>4117</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>3518</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2913</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>2993</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>3875</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>3706</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>3582</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>4075</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>3673</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>3630</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>4340</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>3026</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>3766</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>2879</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>2723</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>4510</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>4888</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>4987</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>4681</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>5728</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>4873</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>4728</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>4929</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>4116</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>4730</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>3623</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>41049</v>
-      </c>
-      <c r="C12" t="n">
-        <v>47142</v>
-      </c>
-      <c r="D12" t="n">
-        <v>48959</v>
-      </c>
-      <c r="E12" t="n">
-        <v>52674</v>
-      </c>
-      <c r="F12" t="n">
-        <v>56411</v>
-      </c>
-      <c r="G12" t="n">
-        <v>44672</v>
-      </c>
-      <c r="H12" t="n">
-        <v>49920</v>
-      </c>
-      <c r="I12" t="n">
-        <v>44806</v>
-      </c>
-      <c r="J12" t="n">
-        <v>42746</v>
-      </c>
-      <c r="K12" t="n">
-        <v>51627</v>
-      </c>
-      <c r="L12" t="n">
-        <v>39274</v>
-      </c>
-      <c r="M12" t="n">
-        <v>46277</v>
-      </c>
-      <c r="N12" t="n">
-        <v>99392</v>
-      </c>
-      <c r="O12" t="n">
-        <v>125678</v>
-      </c>
-      <c r="P12" t="n">
-        <v>127443</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>113447</v>
-      </c>
-      <c r="R12" t="n">
-        <v>110406</v>
-      </c>
-      <c r="S12" t="n">
-        <v>82208</v>
-      </c>
-      <c r="T12" t="n">
-        <v>87471</v>
-      </c>
-      <c r="U12" t="n">
-        <v>84300</v>
-      </c>
-      <c r="V12" t="n">
-        <v>72450</v>
-      </c>
-      <c r="W12" t="n">
-        <v>72687</v>
-      </c>
-      <c r="X12" t="n">
-        <v>55944</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>57294</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>116297</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>160280</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>229094</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>176360</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>166957</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>139167</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>135147</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>132184</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>129512</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>134063</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>109424</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>115539</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>142776</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>179051</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>204505</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>185687</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>207119</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>182821</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>151419</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>179234</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>156062</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>134746</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>159371</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>146331</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>190935</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>218555</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>219119</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>221800</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>200443</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>196182</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>176464</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>144387</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>128513</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>173145</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>165644</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>164574</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>231699</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>260726</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>249162</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>262347</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>277393</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>235453</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>227827</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>229650</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>209132</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>229917</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>207043</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>189930</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>272890</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>303992</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>315765</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>325021</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>349923</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>287448</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>277618</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>306286</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>259369</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>297886</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>240257</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>194974</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>345378</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>389947</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>424789</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>399062</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>467307</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>384353</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>378144</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>411534</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>337786</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>418730</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>313212</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>343086</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>353492</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>420789</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>480965</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>469809</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>478175</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>448126</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>428870</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>424004</v>
-      </c>
-      <c r="DB12" t="n">
-        <v>457755</v>
-      </c>
-      <c r="DC12" t="n">
-        <v>402343</v>
-      </c>
-      <c r="DD12" t="n">
-        <v>377219</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>404097</v>
+      <c r="B13" t="n">
+        <v>42105</v>
+      </c>
+      <c r="C13" t="n">
+        <v>48413</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50346</v>
+      </c>
+      <c r="E13" t="n">
+        <v>54286</v>
+      </c>
+      <c r="F13" t="n">
+        <v>58059</v>
+      </c>
+      <c r="G13" t="n">
+        <v>45997</v>
+      </c>
+      <c r="H13" t="n">
+        <v>51306</v>
+      </c>
+      <c r="I13" t="n">
+        <v>45975</v>
+      </c>
+      <c r="J13" t="n">
+        <v>44007</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53131</v>
+      </c>
+      <c r="L13" t="n">
+        <v>40408</v>
+      </c>
+      <c r="M13" t="n">
+        <v>48267</v>
+      </c>
+      <c r="N13" t="n">
+        <v>102016</v>
+      </c>
+      <c r="O13" t="n">
+        <v>128800</v>
+      </c>
+      <c r="P13" t="n">
+        <v>130512</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>116192</v>
+      </c>
+      <c r="R13" t="n">
+        <v>113362</v>
+      </c>
+      <c r="S13" t="n">
+        <v>84562</v>
+      </c>
+      <c r="T13" t="n">
+        <v>89617</v>
+      </c>
+      <c r="U13" t="n">
+        <v>86526</v>
+      </c>
+      <c r="V13" t="n">
+        <v>74379</v>
+      </c>
+      <c r="W13" t="n">
+        <v>74639</v>
+      </c>
+      <c r="X13" t="n">
+        <v>57624</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>58873</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>119707</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>164653</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>235616</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>181373</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>171773</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>143134</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>138861</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>135791</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>132865</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>137380</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>112290</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>118601</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>146483</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>183618</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>209418</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>190598</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>212540</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>187830</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>155453</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>183772</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>159959</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>138469</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>163954</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>150711</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>195927</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>224403</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>225125</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>227872</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>206057</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>201811</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>181504</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>148107</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>131224</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>177285</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>169918</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>169086</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>237536</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>266899</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>254733</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>268760</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>284000</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>241215</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>233185</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>235301</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>214340</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>235872</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>212544</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>195048</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>279798</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>312289</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>324133</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>333504</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>359046</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>295322</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>284401</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>314184</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>265594</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>304916</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>246253</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>199645</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>354844</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>400209</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>436117</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>409744</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>480117</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>395046</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>388228</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>422346</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>346802</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>429476</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>321799</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>353048</v>
       </c>
     </row>
   </sheetData>
